--- a/DMSNewVSale_2025-11-05_19-06.xlsx
+++ b/DMSNewVSale_2025-11-05_19-06.xlsx
@@ -503,6 +503,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>SAFE TOP SYRUP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>SELOKENZOC 50 MG 28 PROLONGED REL. TABS</t>
   </si>
   <si>
@@ -558,12 +567,6 @@
   </si>
   <si>
     <t>VIBRAMYCIN 100MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -2951,7 +2954,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2992,7 +2995,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>15</v>
@@ -3004,7 +3007,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3021,11 +3024,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>15</v>
@@ -3037,14 +3040,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3054,7 +3057,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3087,11 +3090,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>15</v>
@@ -3103,14 +3106,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3120,7 +3123,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3143,7 +3146,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3176,7 +3179,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3209,7 +3212,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3219,14 +3222,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3235,14 +3238,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3252,14 +3255,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3268,14 +3271,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3285,14 +3288,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3301,31 +3304,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>140</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3334,7 +3337,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3351,14 +3354,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3374,7 +3377,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3384,11 +3387,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>15</v>
@@ -3407,7 +3410,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3417,11 +3420,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>15</v>
@@ -3433,14 +3436,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3450,14 +3453,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3466,7 +3469,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3483,14 +3486,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>209</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3499,14 +3502,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3516,14 +3519,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>15</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3532,14 +3535,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3549,11 +3552,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>15</v>
@@ -3565,14 +3568,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3582,11 +3585,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>15</v>
@@ -3598,14 +3601,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3615,11 +3618,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>15</v>
@@ -3638,7 +3641,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3648,14 +3651,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>140</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3664,14 +3667,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3681,14 +3684,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3697,14 +3700,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3714,11 +3717,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>15</v>
@@ -3730,14 +3733,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3747,11 +3750,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>15</v>
@@ -3770,7 +3773,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3780,11 +3783,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>15</v>
@@ -3803,7 +3806,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3813,51 +3816,84 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="82" ht="26.25" customHeight="1">
-      <c r="N82" s="13">
-        <v>4729.1850000000004</v>
-      </c>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>233</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>140</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>148</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>165</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" ht="25.5" customHeight="1">
+      <c r="N83" s="13">
+        <v>4794.1850000000004</v>
+      </c>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
         <v>234</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
         <v>235</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>236</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4241,10 +4277,15 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
